--- a/ClientExcel/Game/UIForm.xlsx
+++ b/ClientExcel/Game/UIForm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="UIForm" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>#</t>
   </si>
@@ -44,7 +44,10 @@
     <t>AssetId</t>
   </si>
   <si>
-    <t>UIGroupId</t>
+    <t>GroupName</t>
+  </si>
+  <si>
+    <t>GroupId</t>
   </si>
   <si>
     <t>AllowMultiInstance</t>
@@ -74,6 +77,9 @@
     <t>资源编号</t>
   </si>
   <si>
+    <t>界面组名称</t>
+  </si>
+  <si>
     <t>界面组编号</t>
   </si>
   <si>
@@ -89,6 +95,9 @@
     <t>MainMenuForm</t>
   </si>
   <si>
+    <t>Default</t>
+  </si>
+  <si>
     <t>多语言界面</t>
   </si>
   <si>
@@ -105,6 +114,9 @@
   </si>
   <si>
     <t>DialogForm</t>
+  </si>
+  <si>
+    <t>Pop</t>
   </si>
 </sst>
 </file>
@@ -1068,17 +1080,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="8" width="23.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="9" width="23.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1089,7 +1101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1111,145 +1123,166 @@
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:9">
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2">
         <v>1001</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1" t="b">
+      <c r="H5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H5" s="1" t="b">
+      <c r="I5" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:9">
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2">
         <v>1002</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1">
         <v>1</v>
-      </c>
-      <c r="G6" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="H6" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="I6" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:9">
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2">
         <v>1003</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1">
         <v>1</v>
-      </c>
-      <c r="G7" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="H7" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="I7" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:9">
       <c r="B8" s="1">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2">
         <v>1004</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="1">
         <v>2</v>
       </c>
-      <c r="G8" s="1" t="b">
+      <c r="H8" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H8" s="1" t="b">
+      <c r="I8" s="1" t="b">
         <v>0</v>
       </c>
     </row>
